--- a/biology/Médecine/Paul_Chavigny/Paul_Chavigny.xlsx
+++ b/biology/Médecine/Paul_Chavigny/Paul_Chavigny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Marie Victor Chavigny, né le 13 mars 1869 dans le 6e arrondissement de Paris et mort le 1er mai 1949 à Saint-Germain-en-Laye[2], est un médecin militaire français, professeur de médecine légale à la Faculté de médecine de Strasbourg.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Marie Victor Chavigny, né le 13 mars 1869 dans le 6e arrondissement de Paris et mort le 1er mai 1949 à Saint-Germain-en-Laye, est un médecin militaire français, professeur de médecine légale à la Faculté de médecine de Strasbourg.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Du délire fébrile, Lyon, 1892, In-4°.
 L'expertise des plaies par armes à feu, pistolets, revolvers, fusils, carabines, [avec la collaboration du Dr Dervieux et le concours du Dr Paul et de M. Berntheisel], Paris, J.-B. Baillière et fils, 1918, In-16, 343 p., fig.
